--- a/data/pca/factorExposure/factorExposure_2017-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02358107740314884</v>
+        <v>0.009184978260382157</v>
       </c>
       <c r="C2">
-        <v>-0.004026500572130413</v>
+        <v>0.0441660302599646</v>
       </c>
       <c r="D2">
-        <v>-0.03116326463072748</v>
+        <v>0.0299978469430922</v>
       </c>
       <c r="E2">
-        <v>0.01050925898990185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03282058344178253</v>
+      </c>
+      <c r="F2">
+        <v>0.01134213950754254</v>
+      </c>
+      <c r="G2">
+        <v>0.082200431172651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01774905236847672</v>
+        <v>0.04364302332929454</v>
       </c>
       <c r="C3">
-        <v>0.04826955099275774</v>
+        <v>0.09376739776533038</v>
       </c>
       <c r="D3">
-        <v>-0.04921660383628497</v>
+        <v>0.01750908367712416</v>
       </c>
       <c r="E3">
-        <v>0.01538052199811275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1017222970145148</v>
+      </c>
+      <c r="F3">
+        <v>0.01191939068502463</v>
+      </c>
+      <c r="G3">
+        <v>0.1708657424362277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02469764012409341</v>
+        <v>0.05582715608922415</v>
       </c>
       <c r="C4">
-        <v>0.01392401431117013</v>
+        <v>0.06785911311205736</v>
       </c>
       <c r="D4">
-        <v>-0.08078011415163382</v>
+        <v>0.02461381762359416</v>
       </c>
       <c r="E4">
-        <v>-0.01722004726953717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02581600357467262</v>
+      </c>
+      <c r="F4">
+        <v>0.01307880583105247</v>
+      </c>
+      <c r="G4">
+        <v>0.0913012657101242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01447888739082318</v>
+        <v>0.03745188444238901</v>
       </c>
       <c r="C6">
-        <v>-0.0001532441695121649</v>
+        <v>0.05372117297261553</v>
       </c>
       <c r="D6">
-        <v>-0.08293318815038979</v>
+        <v>0.01653070996116139</v>
       </c>
       <c r="E6">
-        <v>-0.009601416963917947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02473811935139378</v>
+      </c>
+      <c r="F6">
+        <v>0.01163510796389551</v>
+      </c>
+      <c r="G6">
+        <v>0.0620376455767583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01118502477809794</v>
+        <v>0.01971718553121249</v>
       </c>
       <c r="C7">
-        <v>0.005963617450120827</v>
+        <v>0.04139101811642385</v>
       </c>
       <c r="D7">
-        <v>-0.04055331150717569</v>
+        <v>0.013142691082186</v>
       </c>
       <c r="E7">
-        <v>-0.05831595152223239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005697016941588026</v>
+      </c>
+      <c r="F7">
+        <v>-0.002394687272201698</v>
+      </c>
+      <c r="G7">
+        <v>0.1216815514993403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.000361717359072117</v>
+        <v>0.002289681925574797</v>
       </c>
       <c r="C8">
-        <v>-0.001525284618039696</v>
+        <v>0.02434294876015111</v>
       </c>
       <c r="D8">
-        <v>-0.004381453493691172</v>
+        <v>0.004021122156767986</v>
       </c>
       <c r="E8">
-        <v>-0.008509495836959207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02098062091665622</v>
+      </c>
+      <c r="F8">
+        <v>0.008005643769293896</v>
+      </c>
+      <c r="G8">
+        <v>0.05985834034951733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01682319370578879</v>
+        <v>0.03272715996433978</v>
       </c>
       <c r="C9">
-        <v>0.01399631540756105</v>
+        <v>0.0492810196790722</v>
       </c>
       <c r="D9">
-        <v>-0.06036705692323276</v>
+        <v>0.01680628346073255</v>
       </c>
       <c r="E9">
-        <v>-0.007510663470667762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01614476003493717</v>
+      </c>
+      <c r="F9">
+        <v>0.01105206726097049</v>
+      </c>
+      <c r="G9">
+        <v>0.08730005617495382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02700062124796402</v>
+        <v>0.09907653315318443</v>
       </c>
       <c r="C10">
-        <v>0.1690183447820205</v>
+        <v>-0.1809660434738479</v>
       </c>
       <c r="D10">
-        <v>0.0979581240286448</v>
+        <v>-0.01461635144324008</v>
       </c>
       <c r="E10">
-        <v>0.01312808392413832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01916911687631956</v>
+      </c>
+      <c r="F10">
+        <v>-0.02084626419193403</v>
+      </c>
+      <c r="G10">
+        <v>0.05826716847700023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008663288303966231</v>
+        <v>0.03402849148385068</v>
       </c>
       <c r="C11">
-        <v>0.003597751837427595</v>
+        <v>0.05501401629196206</v>
       </c>
       <c r="D11">
-        <v>-0.04627398234548082</v>
+        <v>0.002447974267653582</v>
       </c>
       <c r="E11">
-        <v>0.002801645942075661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009041940298070088</v>
+      </c>
+      <c r="F11">
+        <v>0.02221568886212934</v>
+      </c>
+      <c r="G11">
+        <v>0.07085836276360871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006427043520803245</v>
+        <v>0.03559394164602261</v>
       </c>
       <c r="C12">
-        <v>0.0084698729420703</v>
+        <v>0.04914848897670876</v>
       </c>
       <c r="D12">
-        <v>-0.04781282836376595</v>
+        <v>0.006231225853776073</v>
       </c>
       <c r="E12">
-        <v>-0.009279613982355286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001420569237739289</v>
+      </c>
+      <c r="F12">
+        <v>0.001111676989014487</v>
+      </c>
+      <c r="G12">
+        <v>0.06783181874262695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02447407785978297</v>
+        <v>0.01513076084086192</v>
       </c>
       <c r="C13">
-        <v>0.01662950615740491</v>
+        <v>0.03951826943226976</v>
       </c>
       <c r="D13">
-        <v>-0.00986411588670677</v>
+        <v>0.02641019919034906</v>
       </c>
       <c r="E13">
-        <v>0.008437753187623067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02944549762322576</v>
+      </c>
+      <c r="F13">
+        <v>0.008753642130727636</v>
+      </c>
+      <c r="G13">
+        <v>0.1032397756752815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009078534924621781</v>
+        <v>0.007820606821201356</v>
       </c>
       <c r="C14">
-        <v>0.01376742801112862</v>
+        <v>0.02756238323849682</v>
       </c>
       <c r="D14">
-        <v>-0.01087051751085844</v>
+        <v>0.009575565615416465</v>
       </c>
       <c r="E14">
-        <v>-0.007420547469436809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0001173918032588788</v>
+      </c>
+      <c r="F14">
+        <v>-0.006615559892442836</v>
+      </c>
+      <c r="G14">
+        <v>0.08850542471292973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001851784739299499</v>
+        <v>0.03289799621317088</v>
       </c>
       <c r="C16">
-        <v>0.009807788961148516</v>
+        <v>0.04873619730569122</v>
       </c>
       <c r="D16">
-        <v>-0.04880828725039479</v>
+        <v>0.001947646080870732</v>
       </c>
       <c r="E16">
-        <v>-0.007293360888248952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007769139685066302</v>
+      </c>
+      <c r="F16">
+        <v>0.002881205380449868</v>
+      </c>
+      <c r="G16">
+        <v>0.07455750721699787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01511375349814446</v>
+        <v>0.02030943084579703</v>
       </c>
       <c r="C19">
-        <v>0.01664696238348377</v>
+        <v>0.05228614068853228</v>
       </c>
       <c r="D19">
-        <v>-0.02305879111655973</v>
+        <v>0.01905673876002129</v>
       </c>
       <c r="E19">
-        <v>-0.004654560457616917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06537097384378988</v>
+      </c>
+      <c r="F19">
+        <v>0.02453646540400949</v>
+      </c>
+      <c r="G19">
+        <v>0.1207619253095876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01123398372386015</v>
+        <v>0.01417509599370645</v>
       </c>
       <c r="C20">
-        <v>0.005143829618477296</v>
+        <v>0.03906778181961348</v>
       </c>
       <c r="D20">
-        <v>-0.0173650604242949</v>
+        <v>0.01428271049612835</v>
       </c>
       <c r="E20">
-        <v>0.01132439754199002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02794813131928924</v>
+      </c>
+      <c r="F20">
+        <v>-0.008641285373864653</v>
+      </c>
+      <c r="G20">
+        <v>0.0957401353808771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01530053871757901</v>
+        <v>0.01222226000488541</v>
       </c>
       <c r="C21">
-        <v>0.01501741448110246</v>
+        <v>0.03994663030817793</v>
       </c>
       <c r="D21">
-        <v>-0.02529811349687972</v>
+        <v>0.01852373461420223</v>
       </c>
       <c r="E21">
-        <v>-0.01122169654288611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03898866952006241</v>
+      </c>
+      <c r="F21">
+        <v>0.001723154563262728</v>
+      </c>
+      <c r="G21">
+        <v>0.1226078906593544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0004940599771981714</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0005132994385391913</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002211068673288523</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0007308963678514343</v>
+      </c>
+      <c r="F22">
+        <v>0.0003981108794647766</v>
+      </c>
+      <c r="G22">
+        <v>0.002192247334965793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0004983828851650186</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0005129020676050499</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002212527673857085</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0007363074255919268</v>
+      </c>
+      <c r="F23">
+        <v>0.0003963979660672279</v>
+      </c>
+      <c r="G23">
+        <v>0.002201195706034797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004436286136098823</v>
+        <v>0.02752642362133712</v>
       </c>
       <c r="C24">
-        <v>-0.002203831246176057</v>
+        <v>0.0513136234553585</v>
       </c>
       <c r="D24">
-        <v>-0.0459128211536188</v>
+        <v>0.00720634267745841</v>
       </c>
       <c r="E24">
-        <v>-0.006096554205893129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00465283508923642</v>
+      </c>
+      <c r="F24">
+        <v>0.01477305848231847</v>
+      </c>
+      <c r="G24">
+        <v>0.07408084022093436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01258995460026688</v>
+        <v>0.04199313833804758</v>
       </c>
       <c r="C25">
-        <v>0.01368467745072055</v>
+        <v>0.05900435862396863</v>
       </c>
       <c r="D25">
-        <v>-0.04953880751111762</v>
+        <v>0.01121780918386343</v>
       </c>
       <c r="E25">
-        <v>-0.004453767514401651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001874099744098183</v>
+      </c>
+      <c r="F25">
+        <v>0.008820897090155395</v>
+      </c>
+      <c r="G25">
+        <v>0.08117718839800746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02347953359950615</v>
+        <v>0.0139890833155278</v>
       </c>
       <c r="C26">
-        <v>0.007751450426784014</v>
+        <v>0.01145406733847129</v>
       </c>
       <c r="D26">
-        <v>0.003728883000426839</v>
+        <v>0.02379149993046576</v>
       </c>
       <c r="E26">
-        <v>-0.007846829393080616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004782779800633788</v>
+      </c>
+      <c r="F26">
+        <v>-0.007892660677702276</v>
+      </c>
+      <c r="G26">
+        <v>0.07057713638095688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05206924895626015</v>
+        <v>0.1274084655106491</v>
       </c>
       <c r="C28">
-        <v>0.2396412203626544</v>
+        <v>-0.2352609101560513</v>
       </c>
       <c r="D28">
-        <v>0.1374816506890399</v>
+        <v>-0.005736203164653416</v>
       </c>
       <c r="E28">
-        <v>-0.01070463625136392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.005057610775926955</v>
+      </c>
+      <c r="F28">
+        <v>-0.01634717631472001</v>
+      </c>
+      <c r="G28">
+        <v>0.06479739098965198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009448364548041887</v>
+        <v>0.00910286778651455</v>
       </c>
       <c r="C29">
-        <v>0.01740066105083499</v>
+        <v>0.02141197832632708</v>
       </c>
       <c r="D29">
-        <v>-0.008589139393005133</v>
+        <v>0.008596154106758585</v>
       </c>
       <c r="E29">
-        <v>-0.002310519949859956</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0008297568927928451</v>
+      </c>
+      <c r="F29">
+        <v>-0.01454213992699715</v>
+      </c>
+      <c r="G29">
+        <v>0.07996698001913993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02387174557329418</v>
+        <v>0.04098966537438369</v>
       </c>
       <c r="C30">
-        <v>-0.00217357149655349</v>
+        <v>0.06882414611102822</v>
       </c>
       <c r="D30">
-        <v>-0.06490639808471736</v>
+        <v>0.02904730998819199</v>
       </c>
       <c r="E30">
-        <v>0.04205699898008745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04992629896458441</v>
+      </c>
+      <c r="F30">
+        <v>0.05126260030000176</v>
+      </c>
+      <c r="G30">
+        <v>0.0889126698406385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01113777128119208</v>
+        <v>0.05245427689879644</v>
       </c>
       <c r="C31">
-        <v>0.03900431184266005</v>
+        <v>0.03755327916967456</v>
       </c>
       <c r="D31">
-        <v>-0.043268016987649</v>
+        <v>0.003565515428468406</v>
       </c>
       <c r="E31">
-        <v>-0.008889819114065233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.004002351590036161</v>
+      </c>
+      <c r="F31">
+        <v>-0.03875605916821943</v>
+      </c>
+      <c r="G31">
+        <v>0.07999289520918168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004782635217508502</v>
+        <v>0.001183460499747231</v>
       </c>
       <c r="C32">
-        <v>0.0194264246501308</v>
+        <v>0.024033934155154</v>
       </c>
       <c r="D32">
-        <v>-0.002224786955259029</v>
+        <v>-0.003692176554626455</v>
       </c>
       <c r="E32">
-        <v>-0.05326973114181384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01595416028372885</v>
+      </c>
+      <c r="F32">
+        <v>0.04063963374290606</v>
+      </c>
+      <c r="G32">
+        <v>0.09432358524616043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0152650689247029</v>
+        <v>0.02726943690112667</v>
       </c>
       <c r="C33">
-        <v>0.02424269487471442</v>
+        <v>0.05003780411679445</v>
       </c>
       <c r="D33">
-        <v>-0.03460331990341501</v>
+        <v>0.01567569507959302</v>
       </c>
       <c r="E33">
-        <v>0.02730137637996159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03335092934415797</v>
+      </c>
+      <c r="F33">
+        <v>0.01902876300395563</v>
+      </c>
+      <c r="G33">
+        <v>0.119607159378215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003641596376876534</v>
+        <v>0.03986413766092129</v>
       </c>
       <c r="C34">
-        <v>0.01535868118413866</v>
+        <v>0.06225962077194665</v>
       </c>
       <c r="D34">
-        <v>-0.05327539225899867</v>
+        <v>-0.004730353298843832</v>
       </c>
       <c r="E34">
-        <v>-0.01250905098963177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001585109942792132</v>
+      </c>
+      <c r="F34">
+        <v>0.02081025965945265</v>
+      </c>
+      <c r="G34">
+        <v>0.08197820643972269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01366580906327183</v>
+        <v>0.01563564986311971</v>
       </c>
       <c r="C36">
-        <v>0.01809103167257544</v>
+        <v>0.009229696321227079</v>
       </c>
       <c r="D36">
-        <v>-0.005645143071876219</v>
+        <v>0.01206961312290259</v>
       </c>
       <c r="E36">
-        <v>-0.004266066334653525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002351931602275232</v>
+      </c>
+      <c r="F36">
+        <v>-0.005553422416648026</v>
+      </c>
+      <c r="G36">
+        <v>0.07155432867060878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001938736207725431</v>
+        <v>0.03220123470147361</v>
       </c>
       <c r="C38">
-        <v>0.03268176515916664</v>
+        <v>0.03171249454866618</v>
       </c>
       <c r="D38">
-        <v>-0.04220651223899644</v>
+        <v>-0.00759154339285695</v>
       </c>
       <c r="E38">
-        <v>-0.006474751521743449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00245529076247851</v>
+      </c>
+      <c r="F38">
+        <v>-0.01670251221591607</v>
+      </c>
+      <c r="G38">
+        <v>0.07354156147899492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003364963247082273</v>
+        <v>0.03448698747449685</v>
       </c>
       <c r="C39">
-        <v>-0.02515447796647797</v>
+        <v>0.08092077886338511</v>
       </c>
       <c r="D39">
-        <v>-0.08863769950439665</v>
+        <v>0.0116869561026683</v>
       </c>
       <c r="E39">
-        <v>0.005585871050747207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01902051106954981</v>
+      </c>
+      <c r="F39">
+        <v>0.0270966746138247</v>
+      </c>
+      <c r="G39">
+        <v>0.07178898249977091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01268898658330525</v>
+        <v>0.01509005524416574</v>
       </c>
       <c r="C40">
-        <v>0.01404916204447177</v>
+        <v>0.04302216323715832</v>
       </c>
       <c r="D40">
-        <v>-0.03211388033771761</v>
+        <v>0.01499205772826155</v>
       </c>
       <c r="E40">
-        <v>-0.005003677420531588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02091297336177823</v>
+      </c>
+      <c r="F40">
+        <v>-0.01262762034444171</v>
+      </c>
+      <c r="G40">
+        <v>0.1083277383900484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006946155005546274</v>
+        <v>0.01928504948817404</v>
       </c>
       <c r="C41">
-        <v>0.02011014869082892</v>
+        <v>0.001044780924870705</v>
       </c>
       <c r="D41">
-        <v>0.009886192833131099</v>
+        <v>0.004208614121844288</v>
       </c>
       <c r="E41">
-        <v>-0.002588160011837868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009139604472897384</v>
+      </c>
+      <c r="F41">
+        <v>-0.01165893336675458</v>
+      </c>
+      <c r="G41">
+        <v>0.06099876604114435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09069556169412263</v>
+        <v>0.008879526443936296</v>
       </c>
       <c r="C42">
-        <v>-0.03609591841331256</v>
+        <v>0.03725680303912532</v>
       </c>
       <c r="D42">
-        <v>-0.2394614280003825</v>
+        <v>0.09256688033990448</v>
       </c>
       <c r="E42">
-        <v>0.3950108005561258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02320737141110493</v>
+      </c>
+      <c r="F42">
+        <v>-0.03798349921132353</v>
+      </c>
+      <c r="G42">
+        <v>-0.1567799042728036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008645799209961507</v>
+        <v>0.03293376127058591</v>
       </c>
       <c r="C43">
-        <v>0.02578671450507183</v>
+        <v>0.01657129322912854</v>
       </c>
       <c r="D43">
-        <v>0.006256578750350942</v>
+        <v>0.006070811024299945</v>
       </c>
       <c r="E43">
-        <v>0.0006488987599483767</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0151651602095693</v>
+      </c>
+      <c r="F43">
+        <v>-0.002633502487755577</v>
+      </c>
+      <c r="G43">
+        <v>0.08916913389443329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003368743394928288</v>
+        <v>0.01206183935584299</v>
       </c>
       <c r="C44">
-        <v>0.00303091324667704</v>
+        <v>0.05833127299636702</v>
       </c>
       <c r="D44">
-        <v>-0.04101356945436406</v>
+        <v>0.006770784891039164</v>
       </c>
       <c r="E44">
-        <v>-0.006588391592060874</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01725668521770026</v>
+      </c>
+      <c r="F44">
+        <v>-0.006196744251603032</v>
+      </c>
+      <c r="G44">
+        <v>0.08864126789344197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01185613131012546</v>
+        <v>0.007680477184300208</v>
       </c>
       <c r="C46">
-        <v>0.01356260715241251</v>
+        <v>0.01686837311827434</v>
       </c>
       <c r="D46">
-        <v>-0.007408754076596471</v>
+        <v>0.01232306695191165</v>
       </c>
       <c r="E46">
-        <v>0.003012633590826807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0004857921525443358</v>
+      </c>
+      <c r="F46">
+        <v>-0.01436160318427375</v>
+      </c>
+      <c r="G46">
+        <v>0.08180558846293286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005730722261903584</v>
+        <v>0.07702190782699311</v>
       </c>
       <c r="C47">
-        <v>0.04802814109992243</v>
+        <v>0.06697206799282852</v>
       </c>
       <c r="D47">
-        <v>-0.07090420434204167</v>
+        <v>-0.005411231702163206</v>
       </c>
       <c r="E47">
-        <v>-0.008038496165809442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009134032987774689</v>
+      </c>
+      <c r="F47">
+        <v>-0.05417248301661785</v>
+      </c>
+      <c r="G47">
+        <v>0.07292225275330688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004931000534570048</v>
+        <v>0.02012379154368895</v>
       </c>
       <c r="C48">
-        <v>0.02409222115365389</v>
+        <v>0.0126294388989304</v>
       </c>
       <c r="D48">
-        <v>-0.01629262599441366</v>
+        <v>0.001432066312173501</v>
       </c>
       <c r="E48">
-        <v>-0.002619764229283855</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0005979470325394128</v>
+      </c>
+      <c r="F48">
+        <v>-0.01961065407970118</v>
+      </c>
+      <c r="G48">
+        <v>0.07645670905078952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.008357155836424515</v>
+        <v>0.07526562672739329</v>
       </c>
       <c r="C50">
-        <v>0.05271298878256535</v>
+        <v>0.06981775454597294</v>
       </c>
       <c r="D50">
-        <v>-0.07221201058244567</v>
+        <v>-0.002835338646683716</v>
       </c>
       <c r="E50">
-        <v>-0.03211355807385392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.008565004895260969</v>
+      </c>
+      <c r="F50">
+        <v>-0.05635303134430854</v>
+      </c>
+      <c r="G50">
+        <v>0.09034460222992716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007778746401285919</v>
+        <v>0.01358852390454729</v>
       </c>
       <c r="C51">
-        <v>0.01302705451524684</v>
+        <v>0.03535110093886121</v>
       </c>
       <c r="D51">
-        <v>-0.001200210369366922</v>
+        <v>0.01025347026222577</v>
       </c>
       <c r="E51">
-        <v>-0.005347304273543888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01649006189760701</v>
+      </c>
+      <c r="F51">
+        <v>0.02628591965424851</v>
+      </c>
+      <c r="G51">
+        <v>0.1083288686541388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00949229389905221</v>
+        <v>0.08144623360725431</v>
       </c>
       <c r="C53">
-        <v>0.05943057807548847</v>
+        <v>0.08481584928645287</v>
       </c>
       <c r="D53">
-        <v>-0.1289933023402338</v>
+        <v>-0.004234300422609981</v>
       </c>
       <c r="E53">
-        <v>-0.01699697335558059</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02798922221628571</v>
+      </c>
+      <c r="F53">
+        <v>-0.06568139078565054</v>
+      </c>
+      <c r="G53">
+        <v>0.07220394565140985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002712517645026163</v>
+        <v>0.02896525321155847</v>
       </c>
       <c r="C54">
-        <v>0.03334111348970989</v>
+        <v>0.01573962174880597</v>
       </c>
       <c r="D54">
-        <v>0.008223884681456432</v>
+        <v>-0.001281711248750561</v>
       </c>
       <c r="E54">
-        <v>0.002005314686105406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01091195548368969</v>
+      </c>
+      <c r="F54">
+        <v>0.002330967288611618</v>
+      </c>
+      <c r="G54">
+        <v>0.08438334142390524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00483048284340162</v>
+        <v>0.07081836505336903</v>
       </c>
       <c r="C55">
-        <v>0.03691571139975819</v>
+        <v>0.06887010175146198</v>
       </c>
       <c r="D55">
-        <v>-0.1032439171496071</v>
+        <v>-0.005457487173810835</v>
       </c>
       <c r="E55">
-        <v>-0.001096620083111879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02393143565143781</v>
+      </c>
+      <c r="F55">
+        <v>-0.06179196130498543</v>
+      </c>
+      <c r="G55">
+        <v>0.04585923144859554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008902105134259274</v>
+        <v>0.1372442503868206</v>
       </c>
       <c r="C56">
-        <v>0.0813130116263928</v>
+        <v>0.1087823716008653</v>
       </c>
       <c r="D56">
-        <v>-0.1632583803030018</v>
+        <v>-0.01297102032018919</v>
       </c>
       <c r="E56">
-        <v>-0.006859522781706427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03263265129697979</v>
+      </c>
+      <c r="F56">
+        <v>-0.08001124678093241</v>
+      </c>
+      <c r="G56">
+        <v>0.02110303388496766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02420268409897587</v>
+        <v>0.006772283007806469</v>
       </c>
       <c r="C57">
-        <v>0.007296808650900757</v>
+        <v>0.009408730871052802</v>
       </c>
       <c r="D57">
-        <v>-0.04777926833979141</v>
+        <v>0.02362541389147884</v>
       </c>
       <c r="E57">
-        <v>0.005287769899176139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02428299980400569</v>
+      </c>
+      <c r="F57">
+        <v>0.00884226170005095</v>
+      </c>
+      <c r="G57">
+        <v>0.02872979086515075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01779402494847119</v>
+        <v>0.05744578207905052</v>
       </c>
       <c r="C58">
-        <v>0.07211909494220534</v>
+        <v>0.05417842978387724</v>
       </c>
       <c r="D58">
-        <v>-0.1434466295015838</v>
+        <v>0.03032339288498578</v>
       </c>
       <c r="E58">
-        <v>0.5067143216948958</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9355727426173837</v>
+      </c>
+      <c r="F58">
+        <v>-0.2385984434577211</v>
+      </c>
+      <c r="G58">
+        <v>-0.1170437001307856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05198389397657799</v>
+        <v>0.160930249587776</v>
       </c>
       <c r="C59">
-        <v>0.2637160638631019</v>
+        <v>-0.2028670063256432</v>
       </c>
       <c r="D59">
-        <v>0.1337741370159436</v>
+        <v>-0.01082435364850663</v>
       </c>
       <c r="E59">
-        <v>-0.00430528335943075</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01855855345093445</v>
+      </c>
+      <c r="F59">
+        <v>0.005436231765155166</v>
+      </c>
+      <c r="G59">
+        <v>0.04079424977622388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04798479553820621</v>
+        <v>0.2862418021340161</v>
       </c>
       <c r="C60">
-        <v>0.1614406634792418</v>
+        <v>0.1078160405926001</v>
       </c>
       <c r="D60">
-        <v>-0.09531594074522048</v>
+        <v>0.0134204606587306</v>
       </c>
       <c r="E60">
-        <v>-0.01650580911175391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00332200702760051</v>
+      </c>
+      <c r="F60">
+        <v>0.3493504833550722</v>
+      </c>
+      <c r="G60">
+        <v>-0.1255271345129221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003494588792485867</v>
+        <v>0.03684533829348</v>
       </c>
       <c r="C61">
-        <v>0.00524533188435958</v>
+        <v>0.06748851226728601</v>
       </c>
       <c r="D61">
-        <v>-0.06638995681453665</v>
+        <v>0.005183627278815401</v>
       </c>
       <c r="E61">
-        <v>-0.006540321025918906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01210156025518483</v>
+      </c>
+      <c r="F61">
+        <v>0.01511549419765524</v>
+      </c>
+      <c r="G61">
+        <v>0.07352333952735322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008277317532515109</v>
+        <v>0.01394402382455084</v>
       </c>
       <c r="C63">
-        <v>0.005837953976332097</v>
+        <v>0.02952561826625451</v>
       </c>
       <c r="D63">
-        <v>-0.01999449494125172</v>
+        <v>0.008305703008208074</v>
       </c>
       <c r="E63">
-        <v>-0.01135725460078663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0004285076566061101</v>
+      </c>
+      <c r="F63">
+        <v>-0.01538466415569418</v>
+      </c>
+      <c r="G63">
+        <v>0.07614803436360736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009879513781181555</v>
+        <v>0.04703535905424264</v>
       </c>
       <c r="C64">
-        <v>0.02666180030987763</v>
+        <v>0.04652084053622493</v>
       </c>
       <c r="D64">
-        <v>-0.05749452069016756</v>
+        <v>0.00641138571332777</v>
       </c>
       <c r="E64">
-        <v>0.006778638476742226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.001369727888610943</v>
+      </c>
+      <c r="F64">
+        <v>0.005650112569103189</v>
+      </c>
+      <c r="G64">
+        <v>0.0741592698841777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0172144893362659</v>
+        <v>0.07573827233671022</v>
       </c>
       <c r="C65">
-        <v>0.002481552577511012</v>
+        <v>0.06094096384749445</v>
       </c>
       <c r="D65">
-        <v>-0.0973953592752506</v>
+        <v>0.01633902043214682</v>
       </c>
       <c r="E65">
-        <v>-0.01693982701653397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02710491081570356</v>
+      </c>
+      <c r="F65">
+        <v>0.03019789206146496</v>
+      </c>
+      <c r="G65">
+        <v>0.02636854560017081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003719770416148001</v>
+        <v>0.05031397949550338</v>
       </c>
       <c r="C66">
-        <v>-0.01920011507975211</v>
+        <v>0.1107378532248939</v>
       </c>
       <c r="D66">
-        <v>-0.1185174169418485</v>
+        <v>0.01170415447626637</v>
       </c>
       <c r="E66">
-        <v>0.001392861165594919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02773551840561613</v>
+      </c>
+      <c r="F66">
+        <v>0.03700499550140149</v>
+      </c>
+      <c r="G66">
+        <v>0.08609554560915909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005086176118525321</v>
+        <v>0.05493240008664859</v>
       </c>
       <c r="C67">
-        <v>0.05255351413109261</v>
+        <v>0.03544146510388316</v>
       </c>
       <c r="D67">
-        <v>-0.05264944218695307</v>
+        <v>-0.005984972861388372</v>
       </c>
       <c r="E67">
-        <v>-0.008277156196481776</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004354666678353503</v>
+      </c>
+      <c r="F67">
+        <v>-0.0173774047936938</v>
+      </c>
+      <c r="G67">
+        <v>0.06590177324462092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06632020180638007</v>
+        <v>0.1545117785879039</v>
       </c>
       <c r="C68">
-        <v>0.2358090100556489</v>
+        <v>-0.2681558728224485</v>
       </c>
       <c r="D68">
-        <v>0.1551630522312247</v>
+        <v>0.00651322273005413</v>
       </c>
       <c r="E68">
-        <v>0.02157495425803883</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01195656264790713</v>
+      </c>
+      <c r="F68">
+        <v>-0.03181688457379136</v>
+      </c>
+      <c r="G68">
+        <v>0.02934227421124245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.000625920812350367</v>
+        <v>0.08052559480408052</v>
       </c>
       <c r="C69">
-        <v>0.03954915235084239</v>
+        <v>0.06970303498413297</v>
       </c>
       <c r="D69">
-        <v>-0.07303034919900933</v>
+        <v>-0.009477425661898105</v>
       </c>
       <c r="E69">
-        <v>-0.01555052841801635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0256773073993183</v>
+      </c>
+      <c r="F69">
+        <v>-0.03709402125971212</v>
+      </c>
+      <c r="G69">
+        <v>0.07765852884041148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05009103843146668</v>
+        <v>0.1405910751838195</v>
       </c>
       <c r="C71">
-        <v>0.2062066795713936</v>
+        <v>-0.2274529937965598</v>
       </c>
       <c r="D71">
-        <v>0.1160517038422601</v>
+        <v>-0.002081454047607164</v>
       </c>
       <c r="E71">
-        <v>0.01210039170024899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03155024895498151</v>
+      </c>
+      <c r="F71">
+        <v>-0.01810139851285842</v>
+      </c>
+      <c r="G71">
+        <v>0.06239387258623991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0002907064786858071</v>
+        <v>0.08479059847821777</v>
       </c>
       <c r="C72">
-        <v>0.03439643833535454</v>
+        <v>0.07342259337983767</v>
       </c>
       <c r="D72">
-        <v>-0.1198521796013174</v>
+        <v>-0.008050739347244189</v>
       </c>
       <c r="E72">
-        <v>-0.01355755988684614</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00379758162747493</v>
+      </c>
+      <c r="F72">
+        <v>0.0421195420933708</v>
+      </c>
+      <c r="G72">
+        <v>0.06469536457226524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06013879823557119</v>
+        <v>0.3733630309089343</v>
       </c>
       <c r="C73">
-        <v>0.1730378627106349</v>
+        <v>0.1196902927152853</v>
       </c>
       <c r="D73">
-        <v>-0.1944382605001733</v>
+        <v>0.02270575396503465</v>
       </c>
       <c r="E73">
-        <v>0.01281719060286857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07051200182071876</v>
+      </c>
+      <c r="F73">
+        <v>0.5743733843333557</v>
+      </c>
+      <c r="G73">
+        <v>-0.244594916354342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005154676928943705</v>
+        <v>0.1047002621485072</v>
       </c>
       <c r="C74">
-        <v>0.06440230440136613</v>
+        <v>0.110874134600725</v>
       </c>
       <c r="D74">
-        <v>-0.1694864203660195</v>
+        <v>-0.009999739817691828</v>
       </c>
       <c r="E74">
-        <v>0.002347220485609698</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01183424039417132</v>
+      </c>
+      <c r="F74">
+        <v>-0.06904316777539941</v>
+      </c>
+      <c r="G74">
+        <v>0.0646231381275621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01615109372007282</v>
+        <v>0.2481863532652293</v>
       </c>
       <c r="C75">
-        <v>0.1577956886604716</v>
+        <v>0.1508695518658665</v>
       </c>
       <c r="D75">
-        <v>-0.3010841610002813</v>
+        <v>-0.03149869260032784</v>
       </c>
       <c r="E75">
-        <v>0.01233085822532076</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05843146675739459</v>
+      </c>
+      <c r="F75">
+        <v>-0.1753521167766505</v>
+      </c>
+      <c r="G75">
+        <v>-0.057805735703382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004703635643149357</v>
+        <v>0.121827924584981</v>
       </c>
       <c r="C76">
-        <v>0.1069265312789525</v>
+        <v>0.112631855388247</v>
       </c>
       <c r="D76">
-        <v>-0.2315922980472148</v>
+        <v>-0.02051376045917487</v>
       </c>
       <c r="E76">
-        <v>-0.03670542771553881</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03953011924759012</v>
+      </c>
+      <c r="F76">
+        <v>-0.1166927201040851</v>
+      </c>
+      <c r="G76">
+        <v>0.04291271543191456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01451218530660049</v>
+        <v>0.06625216539732336</v>
       </c>
       <c r="C77">
-        <v>0.01954767188884524</v>
+        <v>0.06297356655029836</v>
       </c>
       <c r="D77">
-        <v>-0.04267302674828576</v>
+        <v>0.01207763633823337</v>
       </c>
       <c r="E77">
-        <v>0.01698492124642638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04336347708564876</v>
+      </c>
+      <c r="F77">
+        <v>0.009726694917170287</v>
+      </c>
+      <c r="G77">
+        <v>0.05111028407829496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005875793131594194</v>
+        <v>0.04218999034069593</v>
       </c>
       <c r="C78">
-        <v>0.01438880236997368</v>
+        <v>0.05225840483435448</v>
       </c>
       <c r="D78">
-        <v>-0.04133452992848781</v>
+        <v>0.005543394252709899</v>
       </c>
       <c r="E78">
-        <v>-0.001076488315201089</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02030796549442048</v>
+      </c>
+      <c r="F78">
+        <v>0.03674325233875026</v>
+      </c>
+      <c r="G78">
+        <v>0.0774538356271345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01872519788349696</v>
+        <v>0.05403375007431006</v>
       </c>
       <c r="C80">
-        <v>0.07788850973890116</v>
+        <v>0.07323923415152549</v>
       </c>
       <c r="D80">
-        <v>-0.2055877903932163</v>
+        <v>0.01002275016119781</v>
       </c>
       <c r="E80">
-        <v>-0.7391279748156778</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03316563188881423</v>
+      </c>
+      <c r="F80">
+        <v>0.008251585542903894</v>
+      </c>
+      <c r="G80">
+        <v>0.5490388569491271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0112575915644249</v>
+        <v>0.1400002923680368</v>
       </c>
       <c r="C81">
-        <v>0.09771769959254056</v>
+        <v>0.09668837093959355</v>
       </c>
       <c r="D81">
-        <v>-0.1698934900407159</v>
+        <v>-0.01585044400346869</v>
       </c>
       <c r="E81">
-        <v>-0.01705563267829285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03494476056730325</v>
+      </c>
+      <c r="F81">
+        <v>-0.1339439793253686</v>
+      </c>
+      <c r="G81">
+        <v>0.02128293886005388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1238913563087603</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07081683800156664</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008310598760560136</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0882874095724917</v>
+      </c>
+      <c r="F82">
+        <v>-0.03545850930458942</v>
+      </c>
+      <c r="G82">
+        <v>0.03239426617207154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.00833729137263982</v>
+        <v>0.03637178500779352</v>
       </c>
       <c r="C83">
-        <v>0.02208166734014291</v>
+        <v>0.02888071528731238</v>
       </c>
       <c r="D83">
-        <v>-0.02440003194378508</v>
+        <v>0.006000053124229579</v>
       </c>
       <c r="E83">
-        <v>0.004637984291170602</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02836968121399485</v>
+      </c>
+      <c r="F83">
+        <v>0.03319002493650838</v>
+      </c>
+      <c r="G83">
+        <v>0.05691895723713707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02240109400651553</v>
+        <v>0.2155256978379488</v>
       </c>
       <c r="C85">
-        <v>0.1276945831741217</v>
+        <v>0.1461642899015491</v>
       </c>
       <c r="D85">
-        <v>-0.2766901887392795</v>
+        <v>-0.01980624236162654</v>
       </c>
       <c r="E85">
-        <v>-0.001652878844496174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1004072554562539</v>
+      </c>
+      <c r="F85">
+        <v>-0.1400637225596257</v>
+      </c>
+      <c r="G85">
+        <v>-0.1135031747226166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01018084261100201</v>
+        <v>0.01336647418281966</v>
       </c>
       <c r="C86">
-        <v>0.02732883372717877</v>
+        <v>0.02904461500138633</v>
       </c>
       <c r="D86">
-        <v>-0.01290384937224004</v>
+        <v>0.01259710891170666</v>
       </c>
       <c r="E86">
-        <v>0.03647369326892256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04494635718020699</v>
+      </c>
+      <c r="F86">
+        <v>0.03350238646455356</v>
+      </c>
+      <c r="G86">
+        <v>0.1644063737699638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008771143653216188</v>
+        <v>0.02280947714646878</v>
       </c>
       <c r="C87">
-        <v>0.004883808630606128</v>
+        <v>0.02326517777750769</v>
       </c>
       <c r="D87">
-        <v>-0.04393242912922871</v>
+        <v>0.01235294437325464</v>
       </c>
       <c r="E87">
-        <v>0.00607740772561602</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08279074725722214</v>
+      </c>
+      <c r="F87">
+        <v>0.01922317964952688</v>
+      </c>
+      <c r="G87">
+        <v>0.1056951506767254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02869173698399378</v>
+        <v>0.09105634523975728</v>
       </c>
       <c r="C88">
-        <v>0.02904171492966722</v>
+        <v>0.06603372517009637</v>
       </c>
       <c r="D88">
-        <v>-0.03645404401057407</v>
+        <v>0.02257357847538254</v>
       </c>
       <c r="E88">
-        <v>-0.003309655630741247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008064282152639954</v>
+      </c>
+      <c r="F88">
+        <v>-0.01836500324911397</v>
+      </c>
+      <c r="G88">
+        <v>0.07071783011944574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09694732177619278</v>
+        <v>0.2345541478988326</v>
       </c>
       <c r="C89">
-        <v>0.3910899682759477</v>
+        <v>-0.3673742556095241</v>
       </c>
       <c r="D89">
-        <v>0.2121285146902016</v>
+        <v>0.0003450968564583298</v>
       </c>
       <c r="E89">
-        <v>-0.01982985527699304</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01513902307967185</v>
+      </c>
+      <c r="F89">
+        <v>-0.02913467003343949</v>
+      </c>
+      <c r="G89">
+        <v>0.06341766630377982</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07427041728286331</v>
+        <v>0.2082260883787293</v>
       </c>
       <c r="C90">
-        <v>0.3058989146621235</v>
+        <v>-0.3193159800770625</v>
       </c>
       <c r="D90">
-        <v>0.1944947860948542</v>
+        <v>-0.0042433633371852</v>
       </c>
       <c r="E90">
-        <v>0.01754709959036683</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004722845466776118</v>
+      </c>
+      <c r="F90">
+        <v>-0.05123005790799588</v>
+      </c>
+      <c r="G90">
+        <v>0.02461286342054725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01253881903898784</v>
+        <v>0.1883110015056919</v>
       </c>
       <c r="C91">
-        <v>0.138773114125644</v>
+        <v>0.1409010395924543</v>
       </c>
       <c r="D91">
-        <v>-0.2293233911420248</v>
+        <v>-0.02420476165320208</v>
       </c>
       <c r="E91">
-        <v>-0.02024002669426798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0690119777075776</v>
+      </c>
+      <c r="F91">
+        <v>-0.1498818960422528</v>
+      </c>
+      <c r="G91">
+        <v>0.0115692348912521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04190736070195164</v>
+        <v>0.2020567855551327</v>
       </c>
       <c r="C92">
-        <v>0.3174865211031168</v>
+        <v>-0.2562362601404626</v>
       </c>
       <c r="D92">
-        <v>0.07783480645564893</v>
+        <v>-0.03822037079503595</v>
       </c>
       <c r="E92">
-        <v>0.03323774508563491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03119016852964954</v>
+      </c>
+      <c r="F92">
+        <v>-0.06024882659393775</v>
+      </c>
+      <c r="G92">
+        <v>0.125180994239556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07223011987261695</v>
+        <v>0.2327717678147448</v>
       </c>
       <c r="C93">
-        <v>0.3240757965182658</v>
+        <v>-0.3162189681137247</v>
       </c>
       <c r="D93">
-        <v>0.1763502092055152</v>
+        <v>-0.01079641799358612</v>
       </c>
       <c r="E93">
-        <v>0.04022979305996777</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008390556113831295</v>
+      </c>
+      <c r="F93">
+        <v>-0.03329198229365432</v>
+      </c>
+      <c r="G93">
+        <v>0.02673718581181373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03770476388159612</v>
+        <v>0.3177314912814002</v>
       </c>
       <c r="C94">
-        <v>0.1638237324949672</v>
+        <v>0.178518767720222</v>
       </c>
       <c r="D94">
-        <v>-0.2551765128407526</v>
+        <v>-0.01907423936359854</v>
       </c>
       <c r="E94">
-        <v>0.01835297522526491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1679446817589365</v>
+      </c>
+      <c r="F94">
+        <v>-0.4737313123969939</v>
+      </c>
+      <c r="G94">
+        <v>-0.323505660485398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003804102728318798</v>
+        <v>0.0990507277151636</v>
       </c>
       <c r="C95">
-        <v>0.03253913051148274</v>
+        <v>0.08627738941792694</v>
       </c>
       <c r="D95">
-        <v>-0.09324103208103308</v>
+        <v>-0.01002464723393074</v>
       </c>
       <c r="E95">
-        <v>0.124715248840812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06520508118099108</v>
+      </c>
+      <c r="F95">
+        <v>0.1995142847763158</v>
+      </c>
+      <c r="G95">
+        <v>-0.0684700341689445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02089198594658308</v>
+        <v>0.1970527394303293</v>
       </c>
       <c r="C98">
-        <v>0.158587428100492</v>
+        <v>0.04799865654359277</v>
       </c>
       <c r="D98">
-        <v>-0.1400510321290581</v>
+        <v>-0.01166872617006924</v>
       </c>
       <c r="E98">
-        <v>0.03891019474315885</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07092076858608107</v>
+      </c>
+      <c r="F98">
+        <v>0.2405443318406752</v>
+      </c>
+      <c r="G98">
+        <v>-0.01167740255513162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009218854341385786</v>
+        <v>0.008943502186323055</v>
       </c>
       <c r="C101">
-        <v>0.0171027219922444</v>
+        <v>0.02136171091357936</v>
       </c>
       <c r="D101">
-        <v>-0.008262348698993654</v>
+        <v>0.008412399749405166</v>
       </c>
       <c r="E101">
-        <v>-0.002702373958722881</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001127879997169886</v>
+      </c>
+      <c r="F101">
+        <v>-0.01553193095925817</v>
+      </c>
+      <c r="G101">
+        <v>0.07935934366537928</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02012889882928339</v>
+        <v>0.1174395171563989</v>
       </c>
       <c r="C102">
-        <v>0.06861457884236621</v>
+        <v>0.08490940539155054</v>
       </c>
       <c r="D102">
-        <v>-0.1318810667049729</v>
+        <v>0.0004039610258883318</v>
       </c>
       <c r="E102">
-        <v>-0.003572339052541291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03439011447888134</v>
+      </c>
+      <c r="F102">
+        <v>-0.04180734909139222</v>
+      </c>
+      <c r="G102">
+        <v>-0.001038456446562625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001520400216685056</v>
+        <v>0.002735880150177387</v>
       </c>
       <c r="C103">
-        <v>0.008648822844839711</v>
+        <v>0.002916442580849346</v>
       </c>
       <c r="D103">
-        <v>-0.01925296587234425</v>
+        <v>-6.387536310737772e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01199289144731961</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0006137504829323038</v>
+      </c>
+      <c r="F103">
+        <v>-0.007324170873649212</v>
+      </c>
+      <c r="G103">
+        <v>0.0139316771589113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9685805820637716</v>
+        <v>0.02095832359859312</v>
       </c>
       <c r="C104">
-        <v>-0.2076486441713938</v>
+        <v>-0.02878883470276688</v>
       </c>
       <c r="D104">
-        <v>0.01718420385777211</v>
+        <v>0.9871494150887299</v>
       </c>
       <c r="E104">
-        <v>-0.03807080845942649</v>
+        <v>-0.05507103403394785</v>
+      </c>
+      <c r="F104">
+        <v>-0.03952403634928396</v>
+      </c>
+      <c r="G104">
+        <v>-0.02633118911236949</v>
       </c>
     </row>
   </sheetData>
